--- a/biology/Zoologie/Étrille/Étrille.xlsx
+++ b/biology/Zoologie/Étrille/Étrille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89trille</t>
+          <t>Étrille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Necora puber
 L'étrille (Necora puber) est une espèce de crabes de la famille des Polybiidae (ou des Macropipidae selon les classifications), et la seule du genre monotypique Necora.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89trille</t>
+          <t>Étrille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étrille se caractérise essentiellement par sa dernière paire de péréiopodes, transformée en véritable paire de pattes natatoires par un aplatissement de l'avant-dernier article en « rame » et le dernier (le dactyle) en palette natatoire arrondie, ce qui leur permet de nager plutôt efficacement, si bien que cette espèce mène une vie à peu près exclusivement pélagique[1]. Sa carapace trapézoïdale, assez plate, mesure entre 7 et 15 cm de large ; elle est recouverte dorsalement d'une fine pubescence. La région frontale de la carapace est découpée en 7 à 10 dents de longueur inégale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étrille se caractérise essentiellement par sa dernière paire de péréiopodes, transformée en véritable paire de pattes natatoires par un aplatissement de l'avant-dernier article en « rame » et le dernier (le dactyle) en palette natatoire arrondie, ce qui leur permet de nager plutôt efficacement, si bien que cette espèce mène une vie à peu près exclusivement pélagique. Sa carapace trapézoïdale, assez plate, mesure entre 7 et 15 cm de large ; elle est recouverte dorsalement d'une fine pubescence. La région frontale de la carapace est découpée en 7 à 10 dents de longueur inégale.
 Les yeux de l'étrille sont d'un rouge typique de l'espèce, tandis que la couleur du corps varie du marron au noir. Les pinces ont des reflets bleuâtres et des aspérités sur leurs bords internes. L'étrille utilise ses pinces munies de dents pointues pour découper sa nourriture.
 			Vue dorsale
 			 Face
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89trille</t>
+          <t>Étrille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La zone de répartition de l'espèce s'étend le long de la côte Nord-Est de l'océan Atlantique, du sud de la Norvège au Sahara occidental. Elle se retrouve également, dans une moindre mesure, en mer Méditerranée, ainsi qu'en mer Noire[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de répartition de l'espèce s'étend le long de la côte Nord-Est de l'océan Atlantique, du sud de la Norvège au Sahara occidental. Elle se retrouve également, dans une moindre mesure, en mer Méditerranée, ainsi qu'en mer Noire.
 Elle vit dans les zones sub-littorales des plateaux rocheux, sous les pierres jusqu'à une profondeur d'environ 80 mètres.
 </t>
         </is>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89trille</t>
+          <t>Étrille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Necora puber a été décrite par le naturaliste suédois Carl von Linné en 1767, sous le nom initial de Cancer puber[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Necora puber a été décrite par le naturaliste suédois Carl von Linné en 1767, sous le nom initial de Cancer puber.
 </t>
         </is>
       </c>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89trille</t>
+          <t>Étrille</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,18 +628,89 @@
           <t>Pêche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étrille fait partie des crustacés recherchés lors de la pêche à pied[4]; elle est également parfois péchée au casier et commercialisée.
-Synonymie
-Cancer puber (Linnaeus, 1767) Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étrille fait partie des crustacés recherchés lors de la pêche à pied; elle est également parfois péchée au casier et commercialisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Étrille</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89trille</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pêche</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cancer puber (Linnaeus, 1767) Protonyme
 Polybius puber (Linnaeus, 1767)
 Cancer velutinus (Pennant, 1777)
 Portunus puber (Leach, 1814)
 Macropipus puber (Christiansen, 1969)
-Liocarcinus puber (Ingle, 1980)
-Noms vernaculaires
-En Bretagne ou dans le Cotentin : crabe laineux, crabe cerise, crabe nageur, chèvre, portune, anglette, craquenelle.
+Liocarcinus puber (Ingle, 1980)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Étrille</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89trille</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pêche</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Bretagne ou dans le Cotentin : crabe laineux, crabe cerise, crabe nageur, chèvre, portune, anglette, craquenelle.
 En pays charentais : batailleur.
 Sur l'ile de Noirmoutier : Baleresse
 En Provence : Favouille
